--- a/election_votar_data/LOHAGARA/KALAUZAN/152569/152569_com_1343_male_without_photo_75_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/KALAUZAN/152569/152569_com_1343_male_without_photo_75_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="36.5" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="47" customWidth="1" min="6" max="6"/>
+    <col width="29.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -21105,7 +21105,7 @@
       </c>
       <c r="F492" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ০৮/০৭/২০০৭</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G492" s="3" t="inlineStr">
@@ -24675,7 +24675,7 @@
       </c>
       <c r="F577" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ১০/১০/২০০৬</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G577" s="3" t="inlineStr">
@@ -33915,7 +33915,7 @@
       </c>
       <c r="F797" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ২২/০৭/২০০১</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G797" s="3" t="inlineStr">
@@ -54453,7 +54453,7 @@
       </c>
       <c r="F1286" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ০২/০১/২০০৫</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G1286" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/KALAUZAN/152569/152569_com_1343_male_without_photo_75_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/KALAUZAN/152569/152569_com_1343_male_without_photo_75_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="36.5" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="29.5" customWidth="1" min="6" max="6"/>
+    <col width="47" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -21105,7 +21105,7 @@
       </c>
       <c r="F492" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ০৮/০৭/২০০৭</t>
         </is>
       </c>
       <c r="G492" s="3" t="inlineStr">
@@ -24675,7 +24675,7 @@
       </c>
       <c r="F577" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ১০/১০/২০০৬</t>
         </is>
       </c>
       <c r="G577" s="3" t="inlineStr">
@@ -33915,7 +33915,7 @@
       </c>
       <c r="F797" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ২২/০৭/২০০১</t>
         </is>
       </c>
       <c r="G797" s="3" t="inlineStr">
@@ -54453,7 +54453,7 @@
       </c>
       <c r="F1286" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ০২/০১/২০০৫</t>
         </is>
       </c>
       <c r="G1286" s="3" t="inlineStr">
